--- a/biology/Médecine/Roberto_Assagioli/Roberto_Assagioli.xlsx
+++ b/biology/Médecine/Roberto_Assagioli/Roberto_Assagioli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Assagioli , né le 27 février 1888 à Venise et mort le 23 août 1974 à Capolona d'Arezzo, est un médecin neuropsychiatre et pionnier de la psychanalyse italienne. Au départ disciple de Freud, il se sépara du maître pour développer sa propre approche de la psychothérapie, qu'il appela la psychosynthèse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Assagioli est né le 27 février 1888 dans une famille juive aisée de Venise. Il reçut une bonne culture classique et, grâce à des séjours à l'étranger, il apprit à parler sept langues couramment. Le docteur Roberto Assagioli obtint ses diplômes de l'Université de Florence. Il se spécialisa en neurologie et psychiatrie à Zurich tout en poursuivant des études de psychologie et de philosophie. À Zurich, en 1909, il fit la connaissance de  Carl Gustav Jung, qui était encore proche de Freud à cette époque. Comme thèse de doctorat en psychiatrie, Assagioli fit une « étude critique de la psychanalyse ». C'est vers cette époque qu'il entendit parler du concept de psychosynthèse, avancé par un psychiatre suisse nommé Doumeng Bezzola, qui circulait dans le milieu de la psychanalyse - concept auquel il s'intéressera au point d'y consacrer sa vie. 
 Assagioli a été sensibilisé très tôt aux questions spirituelles, puisque sa mère s'intéressait à la théosophie, une pensée mystico-ésotérique fondée par Mme Blavatsky, très populaire dans la bourgeoisie de l'époque. Il a aussi été militant pacifiste durant la Seconde Guerre mondiale, ce qui n'a pas plu à Mussolini. On raconte qu'il aurait mis à profit son emprisonnement qui s'est ensuivi pour expérimenter et raffiner certaines méthode de connaissance de soi, comme l'écriture et la méditation.
@@ -546,7 +560,9 @@
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychosynthèse, principes et techniques (1965 en anglais, trad. it. en 1973), trad., Desclée de Brouwer, 1997, 286 p.
 Construire sa vie par la psychosynthèse (1966), Courrier du livre, 1965, 48 p.
